--- a/data/final_ents/NER_EXAMPLES.xlsx
+++ b/data/final_ents/NER_EXAMPLES.xlsx
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['WORK OF ART: Need of Speed Underground']</t>
+          <t>['WORK OF ART: Need for Speed Underground']</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['GPE: Argentina', 'LAW: direktiv1999/96/EF ', 'LOCATION: det døde hav']</t>
+          <t>['GPE: Argentina', 'LAW: direktiv1999/96/EF', 'LOCATION: det døde hav']</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['ORGANIZATION: youSees', 'EVENT: cornonaviruspandemien', 'PERSON: @andershemmingsendk', 'WORK OF ART: For lækker til love']</t>
+          <t>['ORGANIZATION: youSees', 'EVENT: cononaviruspandemien', 'PERSON: @andershemmingsendk', 'WORK OF ART: For lækker til love']</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>['PRODUCT: Wii', 'FACILITY: Empire State Bulding']</t>
+          <t>['PRODUCT: Wii', 'FACILITY: Empire State Building']</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>['WORK OF ART: Kongens fald ']</t>
+          <t>['WORK OF ART: Kongens fald']</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>['FACILITY: Stongehenge']</t>
+          <t>['FACILITY: Stonehenge']</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>['WORK OF ART: Kongens fald ']</t>
+          <t>['WORK OF ART: Kongens fald']</t>
         </is>
       </c>
     </row>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>['WORK OF ART: Partners ']</t>
+          <t>['WORK OF ART: Partners']</t>
         </is>
       </c>
     </row>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>['EVENT: 2. Verdenskrig', 'PRODUCT: Daylite Plus rygsæk', 'GPE: Hamburg', 'TIME: 04:30-10.00']</t>
+          <t>['EVENT: 2. Verdenskrig', 'PRODUCT: Daylite Plus rygsæk', 'GPE: Hamburg', 'TIME: 04:30-10:00']</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>['TIME: 04:30-10.00']</t>
+          <t>['TIME: 04:30-10:00']</t>
         </is>
       </c>
     </row>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>['ORGANIZATION: TTH Holsterbro {handball team}']</t>
+          <t>['ORGANIZATION: TTH Holstebro {handball team}']</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>['EVENT: cornonaviruspandemien']</t>
+          <t>['EVENT: cononaviruspandemien']</t>
         </is>
       </c>
     </row>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>['TIME: eftermiddag', 'GPE: Ørsted ', 'NORP: spanierne', 'LOCATION: Ejer Bavnehøj']</t>
+          <t>['TIME: eftermiddag', 'GPE: Ørsted', 'NORP: spanierne', 'LOCATION: Ejer Bavnehøj']</t>
         </is>
       </c>
     </row>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>['FACILITY: Empire State Bulding', 'PERSON: Benjamin Lasniers']</t>
+          <t>['FACILITY: Empire State Building', 'PERSON: Benjamin Lasniers']</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>['EVENT: cornonaviruspandemien', 'GPE: Hillerød', 'LOCATION: Nordsjælland', 'MONEY: ni danske kroner']</t>
+          <t>['EVENT: cononaviruspandemien', 'GPE: Hillerød', 'LOCATION: Nordsjælland', 'MONEY: ni danske kroner']</t>
         </is>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>['TIME: 18:15-19.15', 'MONEY: DKK313']</t>
+          <t>['TIME: 18:15-19:15', 'MONEY: DKK313']</t>
         </is>
       </c>
     </row>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>['LAW: retsplejelovens § 834, stk. 1, nr. 2 ', 'LANGUAGE: bulgarsk', 'WORK OF ART: Supervoksen', 'ORGANIZATION: Carhatt', 'PRODUCT: Heston Vest']</t>
+          <t>['LAW: retsplejelovens § 834, stk. 1, nr. 2', 'LANGUAGE: bulgarsk', 'WORK OF ART: Supervoksen', 'ORGANIZATION: Carhatt', 'PRODUCT: Heston Vest']</t>
         </is>
       </c>
     </row>
@@ -23106,7 +23106,7 @@
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>['LAW: direktiv1999/96/EF ']</t>
+          <t>['LAW: direktiv1999/96/EF']</t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>['PRODUCT: Eva Lysestage ']</t>
+          <t>['PRODUCT: Eva Lysestage']</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="B2457" t="inlineStr">
         <is>
-          <t>['PERCENT: 82%', 'PRODUCT: Eva Lysestage ', 'ORDINAL: 4.']</t>
+          <t>['PERCENT: 82%', 'PRODUCT: Eva Lysestage', 'ORDINAL: 4.']</t>
         </is>
       </c>
     </row>
@@ -25316,7 +25316,7 @@
       </c>
       <c r="B2489" t="inlineStr">
         <is>
-          <t>['WORK OF ART: Need of Speed Underground']</t>
+          <t>['WORK OF ART: Need for Speed Underground']</t>
         </is>
       </c>
     </row>
@@ -27116,7 +27116,7 @@
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>['LAW: retsplejelovens § 834, stk. 1, nr. 2 ', 'NORP: dansker']</t>
+          <t>['LAW: retsplejelovens § 834, stk. 1, nr. 2', 'NORP: dansker']</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>['ORGANIZATION: TTH Holsterbro {handball team}', 'LAW: lovbekendtgørelse nr. 128', 'ORGANIZATION: Coop Danmark A/S']</t>
+          <t>['ORGANIZATION: TTH Holstebro {handball team}', 'LAW: lovbekendtgørelse nr. 128', 'ORGANIZATION: Coop Danmark A/S']</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>['DATE: 2021', 'FACILITY: Stongehenge']</t>
+          <t>['DATE: 2021', 'FACILITY: Stonehenge']</t>
         </is>
       </c>
     </row>
